--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/4_PCT/Mark Input Sheet ANL 2023.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/4_PCT/Mark Input Sheet ANL 2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\4_PCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\4_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A08407F-CC6A-4BD0-B42A-CCAD7A87BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$A$1:$E$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -711,7 +710,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -807,6 +806,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -842,7 +850,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -881,6 +889,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1013,7 +1022,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1029,11 +1038,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="536669944"/>
-        <c:axId val="536669552"/>
+        <c:axId val="381639424"/>
+        <c:axId val="388767800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536669944"/>
+        <c:axId val="381639424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536669552"/>
+        <c:crossAx val="388767800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536669552"/>
+        <c:axId val="388767800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536669944"/>
+        <c:crossAx val="381639424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1171,7 +1180,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1342,7 +1351,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -1358,11 +1367,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="536670728"/>
-        <c:axId val="115326064"/>
+        <c:axId val="388769368"/>
+        <c:axId val="388771720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536670728"/>
+        <c:axId val="388769368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115326064"/>
+        <c:crossAx val="388771720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1413,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115326064"/>
+        <c:axId val="388771720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536670728"/>
+        <c:crossAx val="388769368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,7 +2614,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2650,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2710,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,11 +3074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>Student_Names_Sorted!E3</f>
+        <f>Student_Names_Sorted!E9</f>
         <v>0</v>
       </c>
       <c r="E2" s="18"/>
@@ -3113,8 +3122,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <f>Student_Names_Sorted!E4</f>
-        <v>0</v>
+        <f>Student_Names_Sorted!E3</f>
+        <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
@@ -3129,8 +3138,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <f>Student_Names_Sorted!E5</f>
-        <v>100</v>
+        <f>Student_Names_Sorted!E4</f>
+        <v>90</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
@@ -3145,8 +3154,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <f>Student_Names_Sorted!E6</f>
-        <v>90</v>
+        <f>Student_Names_Sorted!E5</f>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
@@ -3161,8 +3170,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <f>Student_Names_Sorted!E7</f>
-        <v>0</v>
+        <f>Student_Names_Sorted!E6</f>
+        <v>90</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3175,8 +3184,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <f>Student_Names_Sorted!E8</f>
-        <v>90</v>
+        <f>Student_Names_Sorted!E7</f>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3199,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <f>Student_Names_Sorted!E9</f>
+        <f>Student_Names_Sorted!E8</f>
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -3225,7 +3234,7 @@
       </c>
       <c r="B9" s="8">
         <f>Student_Names_Sorted!E10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3250,7 +3259,7 @@
       </c>
       <c r="B10" s="8">
         <f>Student_Names_Sorted!E11</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3300,7 +3309,7 @@
       </c>
       <c r="B12" s="8">
         <f>Student_Names_Sorted!E13</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3325,7 +3334,7 @@
       </c>
       <c r="B13" s="8">
         <f>Student_Names_Sorted!E14</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3375,7 +3384,7 @@
       </c>
       <c r="B15" s="8">
         <f>Student_Names_Sorted!E16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3450,7 +3459,7 @@
       </c>
       <c r="B18" s="8">
         <f>Student_Names_Sorted!E19</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3475,7 +3484,7 @@
       </c>
       <c r="B19" s="8">
         <f>Student_Names_Sorted!E20</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3484,7 +3493,7 @@
       </c>
       <c r="B20" s="8">
         <f>Student_Names_Sorted!E21</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,7 +3529,7 @@
       </c>
       <c r="B24" s="8">
         <f>Student_Names_Sorted!E25</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3547,7 +3556,7 @@
       </c>
       <c r="B27" s="8">
         <f>Student_Names_Sorted!E28</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3556,7 +3565,7 @@
       </c>
       <c r="B28" s="8">
         <f>Student_Names_Sorted!E29</f>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3565,7 +3574,7 @@
       </c>
       <c r="B29" s="8">
         <f>Student_Names_Sorted!E30</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,7 +3610,7 @@
       </c>
       <c r="B33" s="8">
         <f>Student_Names_Sorted!E34</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3629,7 +3638,7 @@
       </c>
       <c r="B35" s="8">
         <f>Student_Names_Sorted!E36</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,7 +3665,7 @@
       </c>
       <c r="B38" s="8">
         <f>Student_Names_Sorted!E39</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3665,7 +3674,7 @@
       </c>
       <c r="B39" s="8">
         <f>Student_Names_Sorted!E40</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3814,11 +3823,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3827,19 +3836,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B57E5C-143E-4882-B848-F252E41CEE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="20.28515625" style="20" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="20.28515625" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5703125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="20" bestFit="1" customWidth="1"/>
@@ -3906,272 +3915,272 @@
       <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="22">
-        <v>53913</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1</v>
+      <c r="A3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="26">
+        <v>100126</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3</v>
       </c>
       <c r="E3" s="24">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="26">
-        <v>68105</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1</v>
+      <c r="A4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="42">
+        <v>94554</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="43">
+        <v>10</v>
       </c>
       <c r="E4" s="24">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="26">
-        <v>84997</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1</v>
+      <c r="A5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="29">
+        <v>100773</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="30">
+        <v>5</v>
       </c>
       <c r="E5" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="29">
-        <v>53323</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
+      <c r="A6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="32">
+        <v>93102</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="33">
+        <v>8</v>
       </c>
       <c r="E6" s="24">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="22">
-        <v>94596</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2</v>
+      <c r="A7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="26">
+        <v>82996</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="27">
+        <v>10</v>
       </c>
       <c r="E7" s="24">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="26">
-        <v>91993</v>
+        <v>68105</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="24">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="26">
-        <v>45245</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="27">
-        <v>2</v>
+      <c r="A9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="22">
+        <v>53913</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
       </c>
       <c r="E9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="42">
+        <v>53506</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="43">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B11" s="32">
         <v>101652</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D11" s="33">
         <v>2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E11" s="24">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="22">
-        <v>54656</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="23">
-        <v>3</v>
-      </c>
-      <c r="E11" s="24">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="26">
-        <v>100126</v>
+        <v>91993</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D12" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="24">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="26">
-        <v>100404</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="27">
-        <v>3</v>
+      <c r="A13" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="42">
+        <v>100049</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="43">
+        <v>7</v>
       </c>
       <c r="E13" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B14" s="29">
-        <v>99559</v>
+        <v>74533</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D14" s="30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" s="24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="22">
-        <v>53506</v>
+        <v>99609</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D15" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="26">
-        <v>49781</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="27">
-        <v>4</v>
+      <c r="A16" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="42">
+        <v>83819</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="43">
+        <v>11</v>
       </c>
       <c r="E16" s="24">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B17" s="29">
-        <v>82324</v>
+        <v>84291</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D17" s="30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E17" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="22">
-        <v>99609</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="23">
-        <v>5</v>
+      <c r="A18" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="32">
+        <v>66876</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="33">
+        <v>6</v>
       </c>
       <c r="E18" s="24">
         <v>100</v>
@@ -4179,67 +4188,67 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B19" s="26">
-        <v>100773</v>
+        <v>45245</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D19" s="27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B20" s="29">
-        <v>74763</v>
+        <v>93274</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D20" s="30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="22">
-        <v>93200</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="23">
-        <v>6</v>
+      <c r="A21" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="32">
+        <v>49781</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="33">
+        <v>4</v>
       </c>
       <c r="E21" s="24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B22" s="26">
-        <v>37748</v>
+        <v>68852</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D22" s="27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" s="24">
         <v>0</v>
@@ -4247,16 +4256,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B23" s="26">
-        <v>66876</v>
+        <v>74614</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D23" s="27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="24">
         <v>100</v>
@@ -4264,16 +4273,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B24" s="29">
-        <v>76252</v>
+        <v>82324</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D24" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="24">
         <v>100</v>
@@ -4281,50 +4290,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B25" s="22">
-        <v>100049</v>
+        <v>54656</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D25" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" s="24">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B26" s="26">
-        <v>74533</v>
+        <v>66088</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D26" s="27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="26">
-        <v>67841</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="27">
-        <v>7</v>
+      <c r="A27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="42">
+        <v>102142</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="43">
+        <v>8</v>
       </c>
       <c r="E27" s="24">
         <v>100</v>
@@ -4332,67 +4341,67 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B28" s="29">
-        <v>74456</v>
+        <v>82761</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D28" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="32">
+        <v>54356</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="33">
+        <v>11</v>
+      </c>
+      <c r="E29" s="24">
         <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="22">
-        <v>102142</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="23">
-        <v>8</v>
-      </c>
-      <c r="E29" s="24">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B30" s="26">
-        <v>93102</v>
+        <v>76252</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D30" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" s="24">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="26">
-        <v>93274</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="27">
-        <v>8</v>
+      <c r="A31" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="42">
+        <v>94596</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="43">
+        <v>2</v>
       </c>
       <c r="E31" s="24">
         <v>0</v>
@@ -4400,16 +4409,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B32" s="29">
-        <v>74614</v>
+        <v>100404</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D32" s="30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" s="24">
         <v>100</v>
@@ -4434,67 +4443,67 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B34" s="26">
-        <v>66088</v>
+        <v>74763</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D34" s="27">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E34" s="24">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B35" s="29">
-        <v>82761</v>
+        <v>99559</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D35" s="30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="22">
-        <v>94554</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="23">
-        <v>10</v>
+      <c r="A36" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="32">
+        <v>84997</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="33">
+        <v>1</v>
       </c>
       <c r="E36" s="24">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="26">
-        <v>82996</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="27">
-        <v>10</v>
+      <c r="A37" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="42">
+        <v>93200</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="43">
+        <v>6</v>
       </c>
       <c r="E37" s="24">
         <v>100</v>
@@ -4502,16 +4511,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B38" s="26">
-        <v>84291</v>
+        <v>67841</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D38" s="27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E38" s="24">
         <v>100</v>
@@ -4519,67 +4528,67 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="B39" s="29">
-        <v>68852</v>
+        <v>53323</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D39" s="30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39" s="24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="32">
+        <v>37748</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="33">
+        <v>6</v>
+      </c>
+      <c r="E40" s="24">
         <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="22">
-        <v>83819</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="23">
-        <v>11</v>
-      </c>
-      <c r="E40" s="24">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B41" s="29">
-        <v>54356</v>
+        <v>74456</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D41" s="30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E41" s="24">
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="32">
-        <v>100993</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="33">
-        <v>11</v>
+      <c r="A43" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="29">
+        <v>55457</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="30">
+        <v>9</v>
       </c>
       <c r="E43" s="24">
         <v>0</v>
@@ -4620,24 +4629,27 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="29">
-        <v>55457</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="30">
-        <v>9</v>
+      <c r="A46" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="32">
+        <v>100993</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="33">
+        <v>11</v>
       </c>
       <c r="E46" s="24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41" xr:uid="{53B57E5C-143E-4882-B848-F252E41CEE77}"/>
+  <autoFilter ref="A1:E41"/>
+  <sortState ref="A4:E41">
+    <sortCondition ref="A3"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4650,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5321,8 +5333,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
